--- a/datamining/final_data/topic10_candidates.xlsx
+++ b/datamining/final_data/topic10_candidates.xlsx
@@ -436,317 +436,317 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.28796</v>
+        <v>0.5220086666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1421</v>
+        <v>0.4889309999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.50275</v>
+        <v>0.4693388333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.18428</v>
+        <v>0.4486773333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07453</v>
+        <v>0.4257023333333334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.14175</v>
+        <v>0.4217935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.58273</v>
+        <v>0.3975093333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.37831</v>
+        <v>0.3883715</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06129</v>
+        <v>0.3867271666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.10982</v>
+        <v>0.3856681666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4101</v>
+        <v>0.3806045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09581000000000001</v>
+        <v>0.3781578333333334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.20336</v>
+        <v>0.3766491666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5031099999999999</v>
+        <v>0.3667355</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.20213</v>
+        <v>0.3641843333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06051</v>
+        <v>0.3570905</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.22319</v>
+        <v>0.3519601666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.38931</v>
+        <v>0.3387191666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.23175</v>
+        <v>0.3081033333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.34938</v>
+        <v>0.3049368333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.23549</v>
+        <v>0.2871915</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.15608</v>
+        <v>0.2782431666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.18949</v>
+        <v>0.2780913333333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.07335</v>
+        <v>0.2763806666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.20181</v>
+        <v>0.2730326666666666</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.25215</v>
+        <v>0.2723675</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.12061</v>
+        <v>0.2642466666666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.24965</v>
+        <v>0.2611585</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3371</v>
+        <v>0.2562801666666666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.13852</v>
+        <v>0.255714</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.21075</v>
+        <v>0.2539706666666667</v>
       </c>
     </row>
     <row r="33">
@@ -756,687 +756,687 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.34594</v>
+        <v>0.251291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.10461</v>
+        <v>0.2445725</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.31808</v>
+        <v>0.2429815</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1223</v>
+        <v>0.2422755</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.04496</v>
+        <v>0.2381188333333333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.14248</v>
+        <v>0.2263538333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.10696</v>
+        <v>0.2236871666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1795</v>
+        <v>0.2213191666666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.05906</v>
+        <v>0.2192431666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.14491</v>
+        <v>0.2183476666666667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.30315</v>
+        <v>0.2138606666666667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.04787</v>
+        <v>0.2067073333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.50857</v>
+        <v>0.1915341666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.49139</v>
+        <v>0.1795191666666666</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3583</v>
+        <v>0.173432</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1011</v>
+        <v>0.1727488333333334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0823</v>
+        <v>0.1725016666666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.10626</v>
+        <v>0.1722681666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.30399</v>
+        <v>0.1718368333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.41519</v>
+        <v>0.168679</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.30589</v>
+        <v>0.1614866666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.211</v>
+        <v>0.1610053333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.15059</v>
+        <v>0.1595503333333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.13444</v>
+        <v>0.1561185</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.57575</v>
+        <v>0.1559768333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.21323</v>
+        <v>0.1501293333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.45843</v>
+        <v>0.1499126666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.05993</v>
+        <v>0.14957</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5440700000000001</v>
+        <v>0.1453615</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.53645</v>
+        <v>0.143547</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.39611</v>
+        <v>0.1429068333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.08248999999999999</v>
+        <v>0.139175</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.29314</v>
+        <v>0.1374348333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1976</v>
+        <v>0.114412</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2337</v>
+        <v>0.1140246666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.11402</v>
+        <v>0.1119608333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.33556</v>
+        <v>0.1109178333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.31526</v>
+        <v>0.1092463333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.12198</v>
+        <v>0.106018</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.08944000000000001</v>
+        <v>0.1059255</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.43339</v>
+        <v>0.1019906666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.31886</v>
+        <v>0.1015121666666667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.09848</v>
+        <v>0.09566866666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.15058</v>
+        <v>0.095384</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.20753</v>
+        <v>0.09465616666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.12102</v>
+        <v>0.09233933333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.63273</v>
+        <v>0.09145299999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.217</v>
+        <v>0.08860516666666667</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.244</v>
+        <v>0.08627133333333334</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.28286</v>
+        <v>0.08538199999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.12198</v>
+        <v>0.08140249999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.44504</v>
+        <v>0.07638633333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.40209</v>
+        <v>0.07505616666666667</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.49235</v>
+        <v>0.07395216666666665</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.22041</v>
+        <v>0.07051816666666666</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.50226</v>
+        <v>0.06600883333333332</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.05463</v>
+        <v>0.0644575</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.11737</v>
+        <v>0.06314233333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.46231</v>
+        <v>0.05811516666666666</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.23611</v>
+        <v>0.05223966666666666</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.47498</v>
+        <v>0.05089816666666666</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.35179</v>
+        <v>0.05088616666666666</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.19358</v>
+        <v>0.04593166666666666</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.32041</v>
+        <v>0.04302466666666666</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.07342</v>
+        <v>0.03999166666666667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.45386</v>
+        <v>0.03740966666666666</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.34224</v>
+        <v>0.03714300000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.22809</v>
+        <v>0.03447016666666666</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.3504</v>
+        <v>0.03306383333333333</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic10_candidates.xlsx
+++ b/datamining/final_data/topic10_candidates.xlsx
@@ -442,1001 +442,1001 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('ㄴ', '인재', '양성')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5220086666666667</v>
+        <v>0.5477923333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('ㄴ', '기초', '자료')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4889309999999999</v>
+        <v>0.5426726666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4693388333333333</v>
+        <v>0.5099286666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4486773333333333</v>
+        <v>0.4931738333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4257023333333334</v>
+        <v>0.489794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4217935</v>
+        <v>0.4894386666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3975093333333333</v>
+        <v>0.481011</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3883715</v>
+        <v>0.481011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('연구', '제시', 'ㄴ')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3867271666666666</v>
+        <v>0.4573028333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('ㄴ', '관심', '높')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3856681666666667</v>
+        <v>0.4510346666666666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('기술', '의', '발달')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3806045</v>
+        <v>0.4405836666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('예비', '교원', '의')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3781578333333334</v>
+        <v>0.4329789999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('다는', '점', '의의')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3766491666666667</v>
+        <v>0.4288255000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3667355</v>
+        <v>0.4273721666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('이', '같', '은')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3641843333333333</v>
+        <v>0.4224683333333334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3570905</v>
+        <v>0.4220026666666667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3519601666666667</v>
+        <v>0.4109036666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3387191666666667</v>
+        <v>0.4038705</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3081033333333333</v>
+        <v>0.4019585</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3049368333333333</v>
+        <v>0.3967248333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2871915</v>
+        <v>0.3928295</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2782431666666667</v>
+        <v>0.3860005</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2780913333333334</v>
+        <v>0.3845003333333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('ㄹ', '필요', '있')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2763806666666667</v>
+        <v>0.3730331666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2730326666666666</v>
+        <v>0.3702235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('중', '의', '하나')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2723675</v>
+        <v>0.369236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2642466666666666</v>
+        <v>0.3663036666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2611585</v>
+        <v>0.3466628333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('찾', '을', '수')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2562801666666666</v>
+        <v>0.3424563333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('유', '미', 'ㄴ')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.255714</v>
+        <v>0.3401650000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('도움', '주', 'ㄹ')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2539706666666667</v>
+        <v>0.3354943333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('ㄴ', '형태', '의')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.251291</v>
+        <v>0.3330688333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('는', '데', '있')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2445725</v>
+        <v>0.3320635</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('있', '을', '것')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2429815</v>
+        <v>0.320984</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('수준', '맞', '는')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2422755</v>
+        <v>0.3209756666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2381188333333333</v>
+        <v>0.3176665</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2263538333333333</v>
+        <v>0.3091935</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2236871666666667</v>
+        <v>0.3084845000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('는', '영향', '분석')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2213191666666667</v>
+        <v>0.2990048333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('영향', '주', '는')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2192431666666666</v>
+        <v>0.2946531666666667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2183476666666667</v>
+        <v>0.281795</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('것', '알', 'ㄹ')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2138606666666667</v>
+        <v>0.2791905</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2067073333333333</v>
+        <v>0.2723675</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('얻', '을', '수')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1915341666666667</v>
+        <v>0.2657758333333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1795191666666666</v>
+        <v>0.2562801666666666</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.173432</v>
+        <v>0.2562801666666666</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1727488333333334</v>
+        <v>0.2554315</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1725016666666667</v>
+        <v>0.253935</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('초점', '맞추', 'ㄴ')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1722681666666667</v>
+        <v>0.2517578333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1718368333333333</v>
+        <v>0.2510351666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('의', '자기', '주도')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.168679</v>
+        <v>0.2450416666666667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1614866666666667</v>
+        <v>0.2431556666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1610053333333333</v>
+        <v>0.2420395</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('향상', '긍정', 'ㄴ')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1595503333333333</v>
+        <v>0.2296888333333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1561185</v>
+        <v>0.221642</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1559768333333333</v>
+        <v>0.2204821666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('학습자', '중심', '의')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1501293333333333</v>
+        <v>0.205056</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1499126666666667</v>
+        <v>0.1956366666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.14957</v>
+        <v>0.1900533333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1453615</v>
+        <v>0.1783186666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.143547</v>
+        <v>0.1723648333333334</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1429068333333333</v>
+        <v>0.1588548333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.139175</v>
+        <v>0.1551213333333333</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1374348333333333</v>
+        <v>0.1540115</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.114412</v>
+        <v>0.1474835</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1140246666666667</v>
+        <v>0.1465798333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1119608333333333</v>
+        <v>0.1427983333333334</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1109178333333333</v>
+        <v>0.1388325</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1092463333333333</v>
+        <v>0.1381596666666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('의', '스', '마')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.106018</v>
+        <v>0.1372461666666667</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1059255</v>
+        <v>0.1367555</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1019906666666667</v>
+        <v>0.1297285</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1015121666666667</v>
+        <v>0.1277378333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.09566866666666667</v>
+        <v>0.1230345</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.095384</v>
+        <v>0.1211995</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.09465616666666667</v>
+        <v>0.1195813333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.09233933333333333</v>
+        <v>0.1173011666666667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.09145299999999999</v>
+        <v>0.1119608333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.08860516666666667</v>
+        <v>0.1113733333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.08627133333333334</v>
+        <v>0.100163</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.08538199999999999</v>
+        <v>0.09773950000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.08140249999999999</v>
+        <v>0.09687316666666666</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.07638633333333333</v>
+        <v>0.09380250000000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.07505616666666667</v>
+        <v>0.09166983333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.07395216666666665</v>
+        <v>0.09058033333333335</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.07051816666666666</v>
+        <v>0.08854383333333332</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.06600883333333332</v>
+        <v>0.08134483333333334</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0644575</v>
+        <v>0.07638633333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.06314233333333333</v>
+        <v>0.07637633333333332</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.05811516666666666</v>
+        <v>0.07100283333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.05223966666666666</v>
+        <v>0.067881</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.05089816666666666</v>
+        <v>0.05614216666666667</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.05088616666666666</v>
+        <v>0.05379300000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.04593166666666666</v>
+        <v>0.05137433333333333</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.04302466666666666</v>
+        <v>0.05097150000000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('그리', 'ㄴ', 'it')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.03999166666666667</v>
+        <v>0.0508265</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.03740966666666666</v>
+        <v>0.04671383333333334</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.03714300000000001</v>
+        <v>0.04352483333333333</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.03447016666666666</v>
+        <v>0.0382965</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.03306383333333333</v>
+        <v>0.02273816666666666</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic10_candidates.xlsx
+++ b/datamining/final_data/topic10_candidates.xlsx
@@ -442,621 +442,621 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '인재', '양성')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5477923333333333</v>
+        <v>0.5099286666666666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '기초', '자료')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5426726666666667</v>
+        <v>0.4931738333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5099286666666666</v>
+        <v>0.489794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4931738333333333</v>
+        <v>0.4894386666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.489794</v>
+        <v>0.481011</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4894386666666667</v>
+        <v>0.481011</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.481011</v>
+        <v>0.4510346666666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.481011</v>
+        <v>0.4273721666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('연구', '제시', 'ㄴ')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4573028333333334</v>
+        <v>0.4220026666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '관심', '높')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4510346666666666</v>
+        <v>0.4109036666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('기술', '의', '발달')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4405836666666667</v>
+        <v>0.4104836666666666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원', '의')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4329789999999999</v>
+        <v>0.4038705</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('다는', '점', '의의')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4288255000000001</v>
+        <v>0.3974706666666666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4273721666666667</v>
+        <v>0.3967248333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('이', '같', '은')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4224683333333334</v>
+        <v>0.3964303333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4220026666666667</v>
+        <v>0.3928295</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4109036666666667</v>
+        <v>0.3860005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4038705</v>
+        <v>0.3702235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4019585</v>
+        <v>0.3663036666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3967248333333333</v>
+        <v>0.3466628333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3928295</v>
+        <v>0.3401731666666666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3860005</v>
+        <v>0.3176665</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3845003333333333</v>
+        <v>0.3156508333333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('ㄹ', '필요', '있')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3730331666666667</v>
+        <v>0.3091935</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3702235</v>
+        <v>0.3084845000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('중', '의', '하나')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.369236</v>
+        <v>0.3034478333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3663036666666667</v>
+        <v>0.3016793333333334</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3466628333333333</v>
+        <v>0.2910916666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('찾', '을', '수')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3424563333333333</v>
+        <v>0.286321</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('유', '미', 'ㄴ')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3401650000000001</v>
+        <v>0.281795</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', 'ㄹ')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3354943333333333</v>
+        <v>0.2815033333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '형태', '의')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3330688333333333</v>
+        <v>0.2790651666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('는', '데', '있')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3320635</v>
+        <v>0.2789838333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('있', '을', '것')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.320984</v>
+        <v>0.2776175</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('수준', '맞', '는')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3209756666666667</v>
+        <v>0.2723675</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3176665</v>
+        <v>0.2718701666666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3091935</v>
+        <v>0.26129</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3084845000000001</v>
+        <v>0.2562801666666666</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('는', '영향', '분석')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2990048333333333</v>
+        <v>0.2562801666666666</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '는')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2946531666666667</v>
+        <v>0.2554315</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.281795</v>
+        <v>0.253935</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', 'ㄹ')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2791905</v>
+        <v>0.2482496666666666</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2723675</v>
+        <v>0.2431556666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('얻', '을', '수')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2657758333333333</v>
+        <v>0.2420395</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2562801666666666</v>
+        <v>0.221642</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2562801666666666</v>
+        <v>0.2204821666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2554315</v>
+        <v>0.2204821666666667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.253935</v>
+        <v>0.207895</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추', 'ㄴ')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2517578333333333</v>
+        <v>0.1956366666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2510351666666667</v>
+        <v>0.1933756666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('의', '자기', '주도')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2450416666666667</v>
+        <v>0.1900533333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2431556666666667</v>
+        <v>0.1828371666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2420395</v>
+        <v>0.1723648333333334</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', 'ㄴ')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2296888333333333</v>
+        <v>0.1654738333333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.221642</v>
+        <v>0.1630291666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2204821666666667</v>
+        <v>0.1588548333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '의')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.205056</v>
+        <v>0.1540115</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1956366666666667</v>
+        <v>0.152063</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1900533333333333</v>
+        <v>0.1514711666666667</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1783186666666667</v>
+        <v>0.1465798333333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1723648333333334</v>
+        <v>0.1449815</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1588548333333333</v>
+        <v>0.1427983333333334</v>
       </c>
     </row>
     <row r="64">
@@ -1066,267 +1066,267 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1551213333333333</v>
+        <v>0.141626</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1540115</v>
+        <v>0.1388325</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1474835</v>
+        <v>0.1381596666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1465798333333333</v>
+        <v>0.1367555</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1427983333333334</v>
+        <v>0.1297285</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1388325</v>
+        <v>0.1277378333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1381596666666667</v>
+        <v>0.1230345</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('의', '스', '마')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1372461666666667</v>
+        <v>0.1211995</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1367555</v>
+        <v>0.1195813333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1297285</v>
+        <v>0.1173011666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1277378333333333</v>
+        <v>0.1119608333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1230345</v>
+        <v>0.1113733333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1211995</v>
+        <v>0.1067625</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1195813333333333</v>
+        <v>0.1021071666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1173011666666667</v>
+        <v>0.1015355</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1119608333333333</v>
+        <v>0.100163</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1113733333333333</v>
+        <v>0.09773950000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.100163</v>
+        <v>0.09687316666666666</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.09773950000000001</v>
+        <v>0.09586116666666666</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.09687316666666666</v>
+        <v>0.09166983333333333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.09380250000000001</v>
+        <v>0.09058033333333335</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.09166983333333333</v>
+        <v>0.08854383333333332</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.09058033333333335</v>
+        <v>0.08134483333333334</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.08854383333333332</v>
+        <v>0.07759199999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.08134483333333334</v>
+        <v>0.07638633333333333</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.07638633333333333</v>
+        <v>0.07637633333333332</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.07637633333333332</v>
+        <v>0.07213900000000001</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1352,71 +1352,71 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.05614216666666667</v>
+        <v>0.067881</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.05379300000000001</v>
+        <v>0.05614216666666667</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.05137433333333333</v>
+        <v>0.05379300000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.05097150000000001</v>
+        <v>0.05137433333333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'ㄴ', 'it')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0508265</v>
+        <v>0.05097150000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.04671383333333334</v>
+        <v>0.0508265</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.04352483333333333</v>
+        <v>0.04671383333333334</v>
       </c>
     </row>
     <row r="100">

--- a/datamining/final_data/topic10_candidates.xlsx
+++ b/datamining/final_data/topic10_candidates.xlsx
@@ -446,37 +446,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5099286666666666</v>
+        <v>0.4824758333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4931738333333333</v>
+        <v>0.468775</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.489794</v>
+        <v>0.4658933333333334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4894386666666667</v>
+        <v>0.4652512500000001</v>
       </c>
     </row>
     <row r="6">
@@ -486,17 +486,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.481011</v>
+        <v>0.4652512500000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.481011</v>
+        <v>0.4638372916666667</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4510346666666666</v>
+        <v>0.4251658333333332</v>
       </c>
     </row>
     <row r="9">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4273721666666667</v>
+        <v>0.4115577083333333</v>
       </c>
     </row>
     <row r="10">
@@ -526,77 +526,77 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4220026666666667</v>
+        <v>0.4047508333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4109036666666667</v>
+        <v>0.3899095833333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4104836666666666</v>
+        <v>0.3824879166666666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4038705</v>
+        <v>0.3799895833333334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('이', '따르', '논문')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3974706666666666</v>
+        <v>0.379955625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3967248333333333</v>
+        <v>0.3765208333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('방법', '평가', '방법')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3964303333333333</v>
+        <v>0.371364375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3928295</v>
+        <v>0.3665185416666666</v>
       </c>
     </row>
     <row r="18">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3860005</v>
+        <v>0.356610625</v>
       </c>
     </row>
     <row r="19">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3702235</v>
+        <v>0.345266875</v>
       </c>
     </row>
     <row r="20">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3663036666666667</v>
+        <v>0.3410695833333334</v>
       </c>
     </row>
     <row r="21">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3466628333333333</v>
+        <v>0.3202410416666667</v>
       </c>
     </row>
     <row r="22">
@@ -646,37 +646,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3401731666666666</v>
+        <v>0.3141539583333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3176665</v>
+        <v>0.2936335416666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', '수')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3156508333333333</v>
+        <v>0.288560625</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3091935</v>
+        <v>0.2830372916666666</v>
       </c>
     </row>
     <row r="26">
@@ -686,17 +686,17 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3084845000000001</v>
+        <v>0.282913125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('미치', '영향', '분석')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3034478333333333</v>
+        <v>0.281564375</v>
       </c>
     </row>
     <row r="28">
@@ -706,17 +706,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3016793333333334</v>
+        <v>0.2765791666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('있', '알', '수')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2910916666666667</v>
+        <v>0.2700441666666667</v>
       </c>
     </row>
     <row r="30">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.286321</v>
+        <v>0.26558375</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.281795</v>
+        <v>0.2634345833333334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학습', '방법', '평가')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2815033333333333</v>
+        <v>0.25928375</v>
       </c>
     </row>
     <row r="33">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2790651666666667</v>
+        <v>0.2576289583333334</v>
       </c>
     </row>
     <row r="34">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2789838333333333</v>
+        <v>0.2547597916666667</v>
       </c>
     </row>
     <row r="35">
@@ -776,107 +776,107 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2776175</v>
+        <v>0.252831875</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2723675</v>
+        <v>0.2518377083333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2718701666666666</v>
+        <v>0.2492875</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.26129</v>
+        <v>0.243131875</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2562801666666666</v>
+        <v>0.23781875</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2562801666666666</v>
+        <v>0.2313545833333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2554315</v>
+        <v>0.226934375</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.253935</v>
+        <v>0.226009375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('영향', '미치', '것')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2482496666666666</v>
+        <v>0.2257727083333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2431556666666667</v>
+        <v>0.2257727083333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2420395</v>
+        <v>0.2255995833333334</v>
       </c>
     </row>
     <row r="46">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.221642</v>
+        <v>0.2049225</v>
       </c>
     </row>
     <row r="47">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2204821666666667</v>
+        <v>0.1949052083333334</v>
       </c>
     </row>
     <row r="48">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2204821666666667</v>
+        <v>0.1949052083333334</v>
       </c>
     </row>
     <row r="49">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.207895</v>
+        <v>0.18475125</v>
       </c>
     </row>
     <row r="50">
@@ -926,27 +926,27 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1956366666666667</v>
+        <v>0.1806058333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('교육', '프로그래밍', '언어')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1933756666666667</v>
+        <v>0.1774891666666666</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1900533333333333</v>
+        <v>0.1768295833333333</v>
       </c>
     </row>
     <row r="53">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1828371666666667</v>
+        <v>0.1675089583333333</v>
       </c>
     </row>
     <row r="54">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1723648333333334</v>
+        <v>0.1631460416666667</v>
       </c>
     </row>
     <row r="55">
@@ -976,97 +976,97 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1654738333333333</v>
+        <v>0.1572647916666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '구현')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1630291666666667</v>
+        <v>0.14645125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1588548333333333</v>
+        <v>0.1441239583333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1540115</v>
+        <v>0.1439685416666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '활용')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.152063</v>
+        <v>0.1423489583333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서', '사용')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1514711666666667</v>
+        <v>0.142099375</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1465798333333333</v>
+        <v>0.138476875</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1449815</v>
+        <v>0.13282</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1427983333333334</v>
+        <v>0.1319647916666667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.141626</v>
+        <v>0.1295679166666667</v>
       </c>
     </row>
     <row r="65">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1388325</v>
+        <v>0.127070625</v>
       </c>
     </row>
     <row r="66">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1381596666666667</v>
+        <v>0.1263870833333333</v>
       </c>
     </row>
     <row r="67">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1367555</v>
+        <v>0.124991875</v>
       </c>
     </row>
     <row r="68">
@@ -1106,27 +1106,27 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1297285</v>
+        <v>0.113243125</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1277378333333333</v>
+        <v>0.112915625</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1230345</v>
+        <v>0.1114166666666667</v>
       </c>
     </row>
     <row r="71">
@@ -1136,37 +1136,37 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1211995</v>
+        <v>0.110604375</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1195813333333333</v>
+        <v>0.1099797916666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1173011666666667</v>
+        <v>0.1044260416666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1119608333333333</v>
+        <v>0.1038564583333333</v>
       </c>
     </row>
     <row r="75">
@@ -1176,17 +1176,17 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1113733333333333</v>
+        <v>0.1036641666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('전자', '책')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1067625</v>
+        <v>0.09798187500000001</v>
       </c>
     </row>
     <row r="77">
@@ -1196,17 +1196,17 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1021071666666667</v>
+        <v>0.09741145833333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('정보', '과학', '영재')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1015355</v>
+        <v>0.09599312500000001</v>
       </c>
     </row>
     <row r="79">
@@ -1216,27 +1216,27 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.100163</v>
+        <v>0.09463124999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.09773950000000001</v>
+        <v>0.09204645833333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.09687316666666666</v>
+        <v>0.09076937500000001</v>
       </c>
     </row>
     <row r="82">
@@ -1246,97 +1246,97 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.09586116666666666</v>
+        <v>0.08725645833333334</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.09166983333333333</v>
+        <v>0.08581791666666667</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.09058033333333335</v>
+        <v>0.08326479166666666</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.08854383333333332</v>
+        <v>0.08195729166666665</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.08134483333333334</v>
+        <v>0.07153041666666668</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '중독')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.07759199999999999</v>
+        <v>0.07073854166666667</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.07638633333333333</v>
+        <v>0.06982791666666666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.07637633333333332</v>
+        <v>0.06980749999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독', '치료')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.07213900000000001</v>
+        <v>0.06340354166666667</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.07100283333333333</v>
+        <v>0.06333374999999999</v>
       </c>
     </row>
     <row r="92">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.067881</v>
+        <v>0.06129625</v>
       </c>
     </row>
     <row r="93">
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.067881</v>
+        <v>0.06129625</v>
       </c>
     </row>
     <row r="94">
@@ -1366,57 +1366,57 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.05614216666666667</v>
+        <v>0.05188020833333334</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.05379300000000001</v>
+        <v>0.04543041666666667</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.05137433333333333</v>
+        <v>0.04524875000000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.05097150000000001</v>
+        <v>0.044418125</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'it')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0508265</v>
+        <v>0.04287229166666667</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.04671383333333334</v>
+        <v>0.04209687500000001</v>
       </c>
     </row>
     <row r="100">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0382965</v>
+        <v>0.03273562499999999</v>
       </c>
     </row>
     <row r="101">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.02273816666666666</v>
+        <v>0.01863520833333333</v>
       </c>
     </row>
   </sheetData>
